--- a/PRODUCTION_2023-11-12/bom.xlsx
+++ b/PRODUCTION_2023-11-12/bom.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -137,15 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">Conn_01x02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treceit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Housing</t>
   </si>
   <si>
     <t xml:space="preserve">R1, R2</t>
@@ -250,6 +241,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -331,13 +323,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.47"/>
@@ -577,129 +569,132 @@
       <c r="A17" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="0" t="n">
+        <v>603</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>41</v>
+      <c r="E17" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>603</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>603</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>603</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>603</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>603</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>603</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>603</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>603</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>603</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>603</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>603</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>603</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>603</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>603</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>603</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>2</v>
+      <c r="C25" s="0" t="s">
+        <v>6</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>57</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,14 +704,11 @@
       <c r="B26" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>6</v>
+      <c r="C26" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -727,21 +719,21 @@
         <v>62</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>65</v>
-      </c>
       <c r="C28" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>65</v>
@@ -759,20 +751,6 @@
       </c>
       <c r="D29" s="0" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
